--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_latest.xlsx
@@ -960,7 +960,7 @@
         <v>0.8725948518807449</v>
       </c>
       <c r="K14">
-        <v>1.455535409161496</v>
+        <v>1.388747888886706</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -992,7 +992,10 @@
         <v>-0.07137938408501182</v>
       </c>
       <c r="J15">
-        <v>0.511561173195739</v>
+        <v>0.444773652920949</v>
+      </c>
+      <c r="K15">
+        <v>0.2348700177716323</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1021,10 +1024,13 @@
         <v>-0.06741148657190271</v>
       </c>
       <c r="I16">
-        <v>0.5155290707088481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.4487415504340581</v>
+      </c>
+      <c r="J16">
+        <v>0.2388379152847414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1047,10 +1053,13 @@
         <v>0.06822860359833866</v>
       </c>
       <c r="H17">
-        <v>0.6511691608790895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.5843816406042994</v>
+      </c>
+      <c r="I17">
+        <v>0.3744780054549828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1070,10 +1079,13 @@
         <v>-0.172577578257326</v>
       </c>
       <c r="G18">
-        <v>0.4103629790234248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.3435754587486348</v>
+      </c>
+      <c r="H18">
+        <v>0.1336718235993181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1090,10 +1102,13 @@
         <v>-0.2179087935094224</v>
       </c>
       <c r="F19">
-        <v>0.3650317637713285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.2982442434965384</v>
+      </c>
+      <c r="G19">
+        <v>0.08834060834722172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1107,10 +1122,13 @@
         <v>-0.2847702154454763</v>
       </c>
       <c r="E20">
-        <v>0.2981703418352746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.2313828215604846</v>
+      </c>
+      <c r="F20">
+        <v>0.02147918641116785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1121,10 +1139,13 @@
         <v>-0.3143564178021929</v>
       </c>
       <c r="D21">
-        <v>0.268584139478558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.201796619203768</v>
+      </c>
+      <c r="E21">
+        <v>-0.00810701594554874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,20 +1153,29 @@
         <v>-0.3325070745318338</v>
       </c>
       <c r="C22">
-        <v>0.2504334827489171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1836459624741271</v>
+      </c>
+      <c r="D22">
+        <v>-0.02625767267518964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.2324016585002178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C23">
+        <v>-0.04428949692388896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_latest.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.297389002388887</v>
+        <v>9.141635797313464</v>
       </c>
       <c r="C2">
-        <v>9.141635797313464</v>
+        <v>-8.409018285787846</v>
       </c>
       <c r="D2">
-        <v>-8.409018285787846</v>
+        <v>-0.6996216861316987</v>
       </c>
       <c r="E2">
-        <v>-0.6996216861316987</v>
+        <v>0.8832909747552129</v>
       </c>
       <c r="F2">
-        <v>0.8832909747552129</v>
+        <v>-2.082996017594043</v>
       </c>
       <c r="G2">
-        <v>-2.082996017594043</v>
+        <v>0.18103513707042</v>
       </c>
       <c r="H2">
-        <v>0.18103513707042</v>
+        <v>-0.2701190178563186</v>
       </c>
       <c r="I2">
-        <v>-0.2701190178563186</v>
+        <v>-0.4104830813702928</v>
       </c>
       <c r="J2">
-        <v>-0.4104830813702928</v>
+        <v>0.1157559294919248</v>
       </c>
       <c r="K2">
-        <v>0.1157559294919248</v>
+        <v>-0.02607301724734923</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8.826710628892494</v>
+        <v>-8.723943454208817</v>
       </c>
       <c r="C3">
-        <v>-8.723943454208817</v>
+        <v>-1.01454685455267</v>
       </c>
       <c r="D3">
-        <v>-1.01454685455267</v>
+        <v>0.5683658063342414</v>
       </c>
       <c r="E3">
-        <v>0.5683658063342414</v>
+        <v>-2.397921186015015</v>
       </c>
       <c r="F3">
-        <v>-2.397921186015015</v>
+        <v>-0.1338900313505515</v>
       </c>
       <c r="G3">
-        <v>-0.1338900313505515</v>
+        <v>-0.5850441862772902</v>
       </c>
       <c r="H3">
-        <v>-0.5850441862772902</v>
+        <v>-0.7254082497912643</v>
       </c>
       <c r="I3">
-        <v>-0.7254082497912643</v>
+        <v>-0.1991692389290468</v>
       </c>
       <c r="J3">
-        <v>-0.1991692389290468</v>
+        <v>-0.3409981856683208</v>
       </c>
       <c r="K3">
-        <v>-0.3409981856683208</v>
+        <v>0.3019764357337431</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-9.780318414391347</v>
+        <v>-2.0709218147352</v>
       </c>
       <c r="C4">
-        <v>-2.0709218147352</v>
+        <v>-0.4880091538482882</v>
       </c>
       <c r="D4">
-        <v>-0.4880091538482882</v>
+        <v>-3.454296146197544</v>
       </c>
       <c r="E4">
-        <v>-3.454296146197544</v>
+        <v>-1.190264991533081</v>
       </c>
       <c r="F4">
-        <v>-1.190264991533081</v>
+        <v>-1.64141914645982</v>
       </c>
       <c r="G4">
-        <v>-1.64141914645982</v>
+        <v>-1.781783209973794</v>
       </c>
       <c r="H4">
-        <v>-1.781783209973794</v>
+        <v>-1.255544199111576</v>
       </c>
       <c r="I4">
-        <v>-1.255544199111576</v>
+        <v>-1.39737314585085</v>
       </c>
       <c r="J4">
-        <v>-1.39737314585085</v>
+        <v>-0.7543985244487865</v>
       </c>
       <c r="K4">
-        <v>-0.7543985244487865</v>
+        <v>-0.6299858181192041</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.200275438764269</v>
+        <v>0.3826372221226423</v>
       </c>
       <c r="C5">
-        <v>0.3826372221226423</v>
+        <v>-2.583649770226613</v>
       </c>
       <c r="D5">
-        <v>-2.583649770226613</v>
+        <v>-0.3196186155621505</v>
       </c>
       <c r="E5">
-        <v>-0.3196186155621505</v>
+        <v>-0.7707727704888893</v>
       </c>
       <c r="F5">
-        <v>-0.7707727704888893</v>
+        <v>-0.9111368340028634</v>
       </c>
       <c r="G5">
-        <v>-0.9111368340028634</v>
+        <v>-0.3848978231406458</v>
       </c>
       <c r="H5">
-        <v>-0.3848978231406458</v>
+        <v>-0.5267267698799198</v>
       </c>
       <c r="I5">
-        <v>-0.5267267698799198</v>
+        <v>0.1162478515221441</v>
       </c>
       <c r="J5">
-        <v>0.1162478515221441</v>
+        <v>0.2406605578517265</v>
       </c>
       <c r="K5">
-        <v>0.2406605578517265</v>
+        <v>-0.1569696481858908</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3719860057927588</v>
+        <v>-2.594300986556497</v>
       </c>
       <c r="C6">
-        <v>-2.594300986556497</v>
+        <v>-0.3302698318920341</v>
       </c>
       <c r="D6">
-        <v>-0.3302698318920341</v>
+        <v>-0.7814239868187727</v>
       </c>
       <c r="E6">
-        <v>-0.7814239868187727</v>
+        <v>-0.9217880503327469</v>
       </c>
       <c r="F6">
-        <v>-0.9217880503327469</v>
+        <v>-0.3955490394705293</v>
       </c>
       <c r="G6">
-        <v>-0.3955490394705293</v>
+        <v>-0.5373779862098034</v>
       </c>
       <c r="H6">
-        <v>-0.5373779862098034</v>
+        <v>0.1055966351922606</v>
       </c>
       <c r="I6">
-        <v>0.1055966351922606</v>
+        <v>0.230009341521843</v>
       </c>
       <c r="J6">
-        <v>0.230009341521843</v>
+        <v>-0.1676208645157742</v>
       </c>
       <c r="K6">
-        <v>-0.1676208645157742</v>
+        <v>-0.24378957821662</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-2.702915518772638</v>
+        <v>-0.4388843641081749</v>
       </c>
       <c r="C7">
-        <v>-0.4388843641081749</v>
+        <v>-0.8900385190349136</v>
       </c>
       <c r="D7">
-        <v>-0.8900385190349136</v>
+        <v>-1.030402582548888</v>
       </c>
       <c r="E7">
-        <v>-1.030402582548888</v>
+        <v>-0.5041635716866701</v>
       </c>
       <c r="F7">
-        <v>-0.5041635716866701</v>
+        <v>-0.6459925184259441</v>
       </c>
       <c r="G7">
-        <v>-0.6459925184259441</v>
+        <v>-0.003017897023880223</v>
       </c>
       <c r="H7">
-        <v>-0.003017897023880223</v>
+        <v>0.1213948093057022</v>
       </c>
       <c r="I7">
-        <v>0.1213948093057022</v>
+        <v>-0.2762353967319151</v>
       </c>
       <c r="J7">
-        <v>-0.2762353967319151</v>
+        <v>-0.3524041104327608</v>
       </c>
       <c r="K7">
-        <v>-0.3524041104327608</v>
+        <v>-0.07608205230983922</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2307826431404359</v>
+        <v>-0.6819367980671746</v>
       </c>
       <c r="C8">
-        <v>-0.6819367980671746</v>
+        <v>-0.8223008615811487</v>
       </c>
       <c r="D8">
-        <v>-0.8223008615811487</v>
+        <v>-0.2960618507189311</v>
       </c>
       <c r="E8">
-        <v>-0.2960618507189311</v>
+        <v>-0.4378907974582051</v>
       </c>
       <c r="F8">
-        <v>-0.4378907974582051</v>
+        <v>0.2050838239438588</v>
       </c>
       <c r="G8">
-        <v>0.2050838239438588</v>
+        <v>0.3294965302734412</v>
       </c>
       <c r="H8">
-        <v>0.3294965302734412</v>
+        <v>-0.06813367576417605</v>
       </c>
       <c r="I8">
-        <v>-0.06813367576417605</v>
+        <v>-0.1443023894650218</v>
       </c>
       <c r="J8">
-        <v>-0.1443023894650218</v>
+        <v>0.1320196686578998</v>
       </c>
       <c r="K8">
-        <v>0.1320196686578998</v>
+        <v>-0.0392001536538242</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.5654386276933741</v>
+        <v>-0.7058026912073482</v>
       </c>
       <c r="C9">
-        <v>-0.7058026912073482</v>
+        <v>-0.1795636803451306</v>
       </c>
       <c r="D9">
-        <v>-0.1795636803451306</v>
+        <v>-0.3213926270844047</v>
       </c>
       <c r="E9">
-        <v>-0.3213926270844047</v>
+        <v>0.3215819943176592</v>
       </c>
       <c r="F9">
-        <v>0.3215819943176592</v>
+        <v>0.4459947006472416</v>
       </c>
       <c r="G9">
-        <v>0.4459947006472416</v>
+        <v>0.04836449460962439</v>
       </c>
       <c r="H9">
-        <v>0.04836449460962439</v>
+        <v>-0.02780421909122137</v>
       </c>
       <c r="I9">
-        <v>-0.02780421909122137</v>
+        <v>0.2485178390317002</v>
       </c>
       <c r="J9">
-        <v>0.2485178390317002</v>
+        <v>0.07729801671997623</v>
       </c>
       <c r="K9">
-        <v>0.07729801671997623</v>
+        <v>0.2304454222287174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.6603092772102132</v>
+        <v>-0.1340702663479956</v>
       </c>
       <c r="C10">
-        <v>-0.1340702663479956</v>
+        <v>-0.2758992130872696</v>
       </c>
       <c r="D10">
-        <v>-0.2758992130872696</v>
+        <v>0.3670754083147943</v>
       </c>
       <c r="E10">
-        <v>0.3670754083147943</v>
+        <v>0.4914881146443768</v>
       </c>
       <c r="F10">
-        <v>0.4914881146443768</v>
+        <v>0.09385790860675949</v>
       </c>
       <c r="G10">
-        <v>0.09385790860675949</v>
+        <v>0.01768919490591373</v>
       </c>
       <c r="H10">
-        <v>0.01768919490591373</v>
+        <v>0.2940112530288354</v>
       </c>
       <c r="I10">
-        <v>0.2940112530288354</v>
+        <v>0.1227914307171113</v>
       </c>
       <c r="J10">
-        <v>0.1227914307171113</v>
+        <v>0.2759388362258526</v>
       </c>
       <c r="K10">
-        <v>0.2759388362258526</v>
+        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.15162438770796</v>
+        <v>-0.293453334447234</v>
       </c>
       <c r="C11">
-        <v>-0.293453334447234</v>
+        <v>0.3495212869548299</v>
       </c>
       <c r="D11">
-        <v>0.3495212869548299</v>
+        <v>0.4739339932844123</v>
       </c>
       <c r="E11">
-        <v>0.4739339932844123</v>
+        <v>0.07630378724679503</v>
       </c>
       <c r="F11">
-        <v>0.07630378724679503</v>
+        <v>0.0001350735459492769</v>
       </c>
       <c r="G11">
-        <v>0.0001350735459492769</v>
+        <v>0.2764571316688709</v>
       </c>
       <c r="H11">
-        <v>0.2764571316688709</v>
+        <v>0.1052373093571469</v>
       </c>
       <c r="I11">
-        <v>0.1052373093571469</v>
+        <v>0.2583847148658881</v>
       </c>
       <c r="J11">
-        <v>0.2583847148658881</v>
+        <v>-0.01904405955723064</v>
       </c>
       <c r="K11">
-        <v>-0.01904405955723064</v>
+        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2053460154962278</v>
+        <v>0.4376286059058361</v>
       </c>
       <c r="C12">
-        <v>0.4376286059058361</v>
+        <v>0.5620413122354185</v>
       </c>
       <c r="D12">
-        <v>0.5620413122354185</v>
+        <v>0.1644111061978012</v>
       </c>
       <c r="E12">
-        <v>0.1644111061978012</v>
+        <v>0.08824239249695551</v>
       </c>
       <c r="F12">
-        <v>0.08824239249695551</v>
+        <v>0.3645644506198771</v>
       </c>
       <c r="G12">
-        <v>0.3645644506198771</v>
+        <v>0.1933446283081531</v>
       </c>
       <c r="H12">
-        <v>0.1933446283081531</v>
+        <v>0.3464920338168943</v>
       </c>
       <c r="I12">
-        <v>0.3464920338168943</v>
+        <v>0.06906325939377558</v>
       </c>
       <c r="J12">
-        <v>0.06906325939377558</v>
+        <v>-0.09392443396517081</v>
       </c>
       <c r="K12">
-        <v>-0.09392443396517081</v>
+        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.6162032393936197</v>
+        <v>0.7406159457232021</v>
       </c>
       <c r="C13">
-        <v>0.7406159457232021</v>
+        <v>0.3429857396855849</v>
       </c>
       <c r="D13">
-        <v>0.3429857396855849</v>
+        <v>0.2668170259847391</v>
       </c>
       <c r="E13">
-        <v>0.2668170259847391</v>
+        <v>0.5431390841076607</v>
       </c>
       <c r="F13">
-        <v>0.5431390841076607</v>
+        <v>0.3719192617959367</v>
       </c>
       <c r="G13">
-        <v>0.3719192617959367</v>
+        <v>0.525066667304678</v>
       </c>
       <c r="H13">
-        <v>0.525066667304678</v>
+        <v>0.2476378928815592</v>
       </c>
       <c r="I13">
-        <v>0.2476378928815592</v>
+        <v>0.0846501995226128</v>
       </c>
       <c r="J13">
-        <v>0.0846501995226128</v>
+        <v>-0.03943237587190501</v>
       </c>
       <c r="K13">
-        <v>-0.03943237587190501</v>
+        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.652643173475852</v>
+        <v>1.255012967438235</v>
       </c>
       <c r="C14">
-        <v>1.255012967438235</v>
+        <v>1.178844253737389</v>
       </c>
       <c r="D14">
+        <v>1.455166311860311</v>
+      </c>
+      <c r="E14">
+        <v>1.283946489548587</v>
+      </c>
+      <c r="F14">
+        <v>1.437093895057328</v>
+      </c>
+      <c r="G14">
+        <v>1.159665120634209</v>
+      </c>
+      <c r="H14">
+        <v>0.9966774272752628</v>
+      </c>
+      <c r="I14">
+        <v>0.8725948518807449</v>
+      </c>
+      <c r="J14">
+        <v>1.388747888886706</v>
+      </c>
+      <c r="K14">
         <v>1.178844253737389</v>
-      </c>
-      <c r="E14">
-        <v>1.455166311860311</v>
-      </c>
-      <c r="F14">
-        <v>1.283946489548587</v>
-      </c>
-      <c r="G14">
-        <v>1.437093895057328</v>
-      </c>
-      <c r="H14">
-        <v>1.159665120634209</v>
-      </c>
-      <c r="I14">
-        <v>0.9966774272752628</v>
-      </c>
-      <c r="J14">
-        <v>0.8725948518807449</v>
-      </c>
-      <c r="K14">
-        <v>1.388747888886706</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3110387314724781</v>
+        <v>0.2348700177716323</v>
       </c>
       <c r="C15">
-        <v>0.2348700177716323</v>
+        <v>0.5111920758945538</v>
       </c>
       <c r="D15">
-        <v>0.5111920758945538</v>
+        <v>0.3399722535828299</v>
       </c>
       <c r="E15">
-        <v>0.3399722535828299</v>
+        <v>0.4931196590915711</v>
       </c>
       <c r="F15">
-        <v>0.4931196590915711</v>
+        <v>0.2156908846684524</v>
       </c>
       <c r="G15">
-        <v>0.2156908846684524</v>
+        <v>0.05270319130950599</v>
       </c>
       <c r="H15">
-        <v>0.05270319130950599</v>
+        <v>-0.07137938408501182</v>
       </c>
       <c r="I15">
-        <v>-0.07137938408501182</v>
+        <v>0.444773652920949</v>
       </c>
       <c r="J15">
-        <v>0.444773652920949</v>
-      </c>
-      <c r="K15">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.5151599734076631</v>
+      </c>
+      <c r="C16">
+        <v>0.343940151095939</v>
+      </c>
+      <c r="D16">
+        <v>0.4970875566046802</v>
+      </c>
+      <c r="E16">
+        <v>0.2196587821815615</v>
+      </c>
+      <c r="F16">
+        <v>0.0566710888226151</v>
+      </c>
+      <c r="G16">
+        <v>-0.06741148657190271</v>
+      </c>
+      <c r="H16">
+        <v>0.4487415504340581</v>
+      </c>
+      <c r="I16">
         <v>0.2388379152847414</v>
       </c>
-      <c r="C16">
-        <v>0.5151599734076631</v>
-      </c>
-      <c r="D16">
-        <v>0.343940151095939</v>
-      </c>
-      <c r="E16">
-        <v>0.4970875566046802</v>
-      </c>
-      <c r="F16">
-        <v>0.2196587821815615</v>
-      </c>
-      <c r="G16">
-        <v>0.0566710888226151</v>
-      </c>
-      <c r="H16">
-        <v>-0.06741148657190271</v>
-      </c>
-      <c r="I16">
-        <v>0.4487415504340581</v>
-      </c>
-      <c r="J16">
-        <v>0.2388379152847414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.6508000635779043</v>
+        <v>0.4795802412661804</v>
       </c>
       <c r="C17">
-        <v>0.4795802412661804</v>
+        <v>0.6327276467749217</v>
       </c>
       <c r="D17">
-        <v>0.6327276467749217</v>
+        <v>0.3552988723518029</v>
       </c>
       <c r="E17">
-        <v>0.3552988723518029</v>
+        <v>0.1923111789928565</v>
       </c>
       <c r="F17">
-        <v>0.1923111789928565</v>
+        <v>0.06822860359833866</v>
       </c>
       <c r="G17">
-        <v>0.06822860359833866</v>
+        <v>0.5843816406042994</v>
       </c>
       <c r="H17">
-        <v>0.5843816406042994</v>
-      </c>
-      <c r="I17">
         <v>0.3744780054549828</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2387740594105157</v>
+        <v>0.3919214649192569</v>
       </c>
       <c r="C18">
-        <v>0.3919214649192569</v>
+        <v>0.1144926904961382</v>
       </c>
       <c r="D18">
-        <v>0.1144926904961382</v>
+        <v>-0.04849500286280822</v>
       </c>
       <c r="E18">
-        <v>-0.04849500286280822</v>
+        <v>-0.172577578257326</v>
       </c>
       <c r="F18">
-        <v>-0.172577578257326</v>
+        <v>0.3435754587486348</v>
       </c>
       <c r="G18">
-        <v>0.3435754587486348</v>
-      </c>
-      <c r="H18">
         <v>0.1336718235993181</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3465902496671606</v>
+        <v>0.0691614752440418</v>
       </c>
       <c r="C19">
-        <v>0.0691614752440418</v>
+        <v>-0.09382621811490459</v>
       </c>
       <c r="D19">
-        <v>-0.09382621811490459</v>
+        <v>-0.2179087935094224</v>
       </c>
       <c r="E19">
-        <v>-0.2179087935094224</v>
+        <v>0.2982442434965384</v>
       </c>
       <c r="F19">
-        <v>0.2982442434965384</v>
-      </c>
-      <c r="G19">
         <v>0.08834060834722172</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.00230005330798793</v>
+        <v>-0.1606876400509585</v>
       </c>
       <c r="C20">
-        <v>-0.1606876400509585</v>
+        <v>-0.2847702154454763</v>
       </c>
       <c r="D20">
-        <v>-0.2847702154454763</v>
+        <v>0.2313828215604846</v>
       </c>
       <c r="E20">
-        <v>0.2313828215604846</v>
-      </c>
-      <c r="F20">
         <v>0.02147918641116785</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1902738424076751</v>
+        <v>-0.3143564178021929</v>
       </c>
       <c r="C21">
-        <v>-0.3143564178021929</v>
+        <v>0.201796619203768</v>
       </c>
       <c r="D21">
-        <v>0.201796619203768</v>
-      </c>
-      <c r="E21">
         <v>-0.00810701594554874</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.3325070745318338</v>
+        <v>0.1836459624741271</v>
       </c>
       <c r="C22">
-        <v>0.1836459624741271</v>
-      </c>
-      <c r="D22">
         <v>-0.02625767267518964</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1656141382254278</v>
-      </c>
-      <c r="C23">
         <v>-0.04428949692388896</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_latest.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>2.297389002388887</v>
+      </c>
+      <c r="C2">
         <v>9.141635797313464</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-8.409018285787846</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.6996216861316987</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8832909747552129</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-2.082996017594043</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.18103513707042</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.2701190178563186</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.4104830813702928</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1157559294919248</v>
-      </c>
-      <c r="K2">
-        <v>-0.02607301724734923</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>8.826710628892494</v>
+      </c>
+      <c r="C3">
         <v>-8.723943454208817</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-1.01454685455267</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.5683658063342414</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-2.397921186015015</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.1338900313505515</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.5850441862772902</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.7254082497912643</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.1991692389290468</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.3409981856683208</v>
-      </c>
-      <c r="K3">
-        <v>0.3019764357337431</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-9.780318414391347</v>
+      </c>
+      <c r="C4">
         <v>-2.0709218147352</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.4880091538482882</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-3.454296146197544</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-1.190264991533081</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-1.64141914645982</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1.781783209973794</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.255544199111576</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-1.39737314585085</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.7543985244487865</v>
-      </c>
-      <c r="K4">
-        <v>-0.6299858181192041</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-1.200275438764269</v>
+      </c>
+      <c r="C5">
         <v>0.3826372221226423</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-2.583649770226613</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.3196186155621505</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.7707727704888893</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.9111368340028634</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.3848978231406458</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.5267267698799198</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.1162478515221441</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.2406605578517265</v>
-      </c>
-      <c r="K5">
-        <v>-0.1569696481858908</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.3719860057927588</v>
+      </c>
+      <c r="C6">
         <v>-2.594300986556497</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.3302698318920341</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.7814239868187727</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.9217880503327469</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.3955490394705293</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.5373779862098034</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1055966351922606</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.230009341521843</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.1676208645157742</v>
-      </c>
-      <c r="K6">
-        <v>-0.24378957821662</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-2.702915518772638</v>
+      </c>
+      <c r="C7">
         <v>-0.4388843641081749</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.8900385190349136</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.030402582548888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.5041635716866701</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.6459925184259441</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.003017897023880223</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1213948093057022</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.2762353967319151</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.3524041104327608</v>
-      </c>
-      <c r="K7">
-        <v>-0.07608205230983922</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.2307826431404359</v>
+      </c>
+      <c r="C8">
         <v>-0.6819367980671746</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.8223008615811487</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.2960618507189311</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.4378907974582051</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2050838239438588</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.3294965302734412</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.06813367576417605</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.1443023894650218</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.1320196686578998</v>
-      </c>
-      <c r="K8">
-        <v>-0.0392001536538242</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.5654386276933741</v>
+      </c>
+      <c r="C9">
         <v>-0.7058026912073482</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.1795636803451306</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.3213926270844047</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3215819943176592</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.4459947006472416</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.04836449460962439</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.02780421909122137</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2485178390317002</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.07729801671997623</v>
-      </c>
-      <c r="K9">
-        <v>0.2304454222287174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.6603092772102132</v>
+      </c>
+      <c r="C10">
         <v>-0.1340702663479956</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.2758992130872696</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3670754083147943</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4914881146443768</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.09385790860675949</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.01768919490591373</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.2940112530288354</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.1227914307171113</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.2759388362258526</v>
-      </c>
-      <c r="K10">
-        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.15162438770796</v>
+      </c>
+      <c r="C11">
         <v>-0.293453334447234</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3495212869548299</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4739339932844123</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.07630378724679503</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001350735459492769</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.2764571316688709</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.1052373093571469</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.2583847148658881</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.01904405955723064</v>
-      </c>
-      <c r="K11">
-        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.2053460154962278</v>
+      </c>
+      <c r="C12">
         <v>0.4376286059058361</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5620413122354185</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1644111061978012</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.08824239249695551</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.3645644506198771</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1933446283081531</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.3464920338168943</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.06906325939377558</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.09392443396517081</v>
-      </c>
-      <c r="K12">
-        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.6162032393936197</v>
+      </c>
+      <c r="C13">
         <v>0.7406159457232021</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3429857396855849</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2668170259847391</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.5431390841076607</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.3719192617959367</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.525066667304678</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.2476378928815592</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.0846501995226128</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.03943237587190501</v>
-      </c>
-      <c r="K13">
-        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>1.652643173475852</v>
+      </c>
+      <c r="C14">
         <v>1.255012967438235</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.178844253737389</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.455166311860311</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.283946489548587</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.437093895057328</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.159665120634209</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.9966774272752628</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.8725948518807449</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.388747888886706</v>
-      </c>
-      <c r="K14">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +968,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.3110387314724781</v>
+      </c>
+      <c r="C15">
         <v>0.2348700177716323</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.5111920758945538</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3399722535828299</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.4931196590915711</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.2156908846684524</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.05270319130950599</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.07137938408501182</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.444773652920949</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.2388379152847414</v>
+      </c>
+      <c r="C16">
         <v>0.5151599734076631</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.343940151095939</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.4970875566046802</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.2196587821815615</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0566710888226151</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.06741148657190271</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.4487415504340581</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.2388379152847414</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.6508000635779043</v>
+      </c>
+      <c r="C17">
         <v>0.4795802412661804</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.6327276467749217</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3552988723518029</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1923111789928565</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.06822860359833866</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.5843816406042994</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.3744780054549828</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.2387740594105157</v>
+      </c>
+      <c r="C18">
         <v>0.3919214649192569</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.1144926904961382</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.04849500286280822</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.172577578257326</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.3435754587486348</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.1336718235993181</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.3465902496671606</v>
+      </c>
+      <c r="C19">
         <v>0.0691614752440418</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.09382621811490459</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.2179087935094224</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.2982442434965384</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.08834060834722172</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.00230005330798793</v>
+      </c>
+      <c r="C20">
         <v>-0.1606876400509585</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.2847702154454763</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2313828215604846</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.02147918641116785</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.1902738424076751</v>
+      </c>
+      <c r="C21">
         <v>-0.3143564178021929</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.201796619203768</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.00810701594554874</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C22">
         <v>0.1836459624741271</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.02625767267518964</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C23">
         <v>-0.04428949692388896</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>
